--- a/data/Map126.xlsx
+++ b/data/Map126.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>ロメリア</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>・・・</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>\n&lt;ふたなり淫魔&gt;く・・・あ・・・♥
@@ -479,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,159 +490,162 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map126.xlsx
+++ b/data/Map126.xlsx
@@ -482,7 +482,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,161 +490,251 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>

--- a/data/Map126.xlsx
+++ b/data/Map126.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexm\Documents\GitHub\Captured-Als-To-Romeria-Translation\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B3221B-E9F9-4227-BB2C-AC1AC47F653B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>ロメリア</t>
   </si>
@@ -144,22 +150,137 @@
   <si>
     <t>\n&lt;ロメリア&gt;私が・・・
 私があにきを助けてあげなきゃ。</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Brother...
+Became a succubus hunter...
+Uuuugh, I’m so worried...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Taking such a dangerous job for the sake of me and mother...
+When brother's not around, I...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Just don't overdo it...
+Brother...</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;Oh! A cute little girly♥
+What are you doing here?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;What the!? Let go!!
+Kyah... Nnnngh!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;Keep your voice down.
+Do you want a hunter to come here?
+Hora, if you just sit still, I'll carry you away to heaven♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Mmmmmph～～～!!!
+(Big brother... Help me...!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;After all, you went into the depths of the forest where
+succubi come from. Am I safe to assume this was
+your desired outcome～? Keheheheh♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Mmmmmph!!!
+(Brother!! Oh no!! I'm scared!! Help me, brother!!)</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;Oho-♥
+Such giant breasts-♥
+Bon appetit-♥</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;Kuh... Aaahh...♥
+What the... Her tits...♥
+They're sucking me in...♥ Ahhhh!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;I'm cumming again!!
+Ahhhhhhhhhhnnn!!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Kyaaaaah!!</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;Ahhhhn...♥
+I... I can't stop ejaculating...♥
+Hah... Hah...</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;No... More... I...
+Can't...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Wh... What the...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;She took herself down...
+...
+She willingly destroyed herself...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;...?</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I... I suppose...
+I've been saved...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ugh... So disgusting...
+My body is all sticky...
+This filthy stuff... Is spread all over my body...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;But\..\..\..\.\.
+I defeated.\..\..\.\. A succubus\..\..\..
+\}(Although I didn't actually do anything.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;Ahh...</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;(My mind cried out for brother's help
+right after telling him not to overdo it...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;(When it comes down to it, I always rely on him.
+I put brother through so many harsh scenarios.
+It's always been like that...)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;(Well... No more.)</t>
+  </si>
+  <si>
+    <t>\n&lt;Meria&gt;I'm...
+I'm going to help out my brother.</t>
+  </si>
+  <si>
+    <t>\n&lt;Futa Succubus&gt;D... Damn...♥
+How can a human be so...♥
+Aaaah!! Cumming!! Ahhh...!!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -167,28 +288,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -478,19 +615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:B31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="87.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -506,7 +645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -514,242 +653,316 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
+      <c r="C31" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
 </worksheet>
 </file>